--- a/Table_14.xlsx
+++ b/Table_14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Айрапетов Эрнест\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D846FFB4-3750-4CA6-B467-2F4B4F4BC11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D61E28-2E5F-4630-A8A0-472550B3B700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,18 +52,22 @@
     <t xml:space="preserve"> Схема увлажнения</t>
   </si>
   <si>
+    <t>IV или V</t>
+  </si>
+  <si>
     <t>K пик
-для грунтов непылеватых</t>
+для грунтов 
+непылеватых</t>
   </si>
   <si>
     <t>K пик
-для грунтов пылеватых</t>
-  </si>
-  <si>
-    <t>Kг для пылеватых грунтов</t>
-  </si>
-  <si>
-    <t>IV или V</t>
+для грунтов 
+пылеватых</t>
+  </si>
+  <si>
+    <t>Kг для 
+пылеватых 
+грунтов</t>
   </si>
 </sst>
 </file>
@@ -940,7 +944,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,13 +963,13 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -1079,7 +1083,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
